--- a/server/scripts/xlsx/participants_status.xlsx
+++ b/server/scripts/xlsx/participants_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taraepp/Dev/hcap_workspace/hcap/server/scripts/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FDECB3-72A0-B048-9326-59B1C9BE936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500AD750-8BA7-8149-A314-601CC7B1258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46600" yWindow="2400" windowWidth="20740" windowHeight="12280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>{"site":4,"hiredDate":"2022/05/02","startDate":"2022/05/03","positionType":"","positionTitle":"","nonHcapOpportunity":false}</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>complicated mapping relationship to users table (jsonb property) that is not enforced through any fk relationship</t>
+  </si>
+  <si>
+    <t>{"site":1,"hiredDate":"2022/05/02","startDate":"2022/05/03","positionType":"","positionTitle":"","nonHcapOpportunity":false}</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -447,19 +447,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -470,13 +470,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -484,8 +484,8 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -506,12 +506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
